--- a/autoflpy/data/Checklists_nominal.xlsx
+++ b/autoflpy/data/Checklists_nominal.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABEACE02EC53F31C599C5BDE589D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{285ED05A-C383-43E9-939F-AA48B9312B05}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABEACE02EC53F31C599C5BDE589D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{71D19383-5774-4799-8417-D87EEED460C3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>43466.647037037037</v>
+        <v>43475.647037037037</v>
       </c>
       <c r="C2" s="3">
-        <v>43466.647893518515</v>
+        <v>43475.647893518515</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -642,10 +642,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>43466.647974537038</v>
+        <v>43475.647974537038</v>
       </c>
       <c r="C3" s="3">
-        <v>43466.648449074077</v>
+        <v>43475.648449074077</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -679,10 +679,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>43466.648472222223</v>
+        <v>43475.648472222223</v>
       </c>
       <c r="C4" s="3">
-        <v>43466.648877314816</v>
+        <v>43475.648877314816</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -850,9 +850,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,27 +1062,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A07314-A218-4DF1-BCBF-9D26657E292F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9490256D-FE71-47F1-BF3D-91D2AB4FCEA7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1104,9 +1095,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9490256D-FE71-47F1-BF3D-91D2AB4FCEA7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A07314-A218-4DF1-BCBF-9D26657E292F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="4de5569b-e040-4e3a-896c-3d10ceee17bb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/autoflpy/data/Checklists_nominal.xlsx
+++ b/autoflpy/data/Checklists_nominal.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_F25DC773A252ABEACE02EC53F31C599C5BDE589D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{71D19383-5774-4799-8417-D87EEED460C3}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABEACE02EC53F31C599C5BDE589D" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{861E07BC-67AE-42DB-8CFF-5C926BDD79E7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Start time</t>
   </si>
   <si>
-    <t>Completion time</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>End time</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{8EFB003D-C6EA-46D6-8F97-204C77BE87AD}" name="ID" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{862421D3-E71F-4FFF-9271-4038386F708D}" name="Start time" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{8FB7474C-32ED-40F5-92AE-80F29DACEF0A}" name="Completion time" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{8FB7474C-32ED-40F5-92AE-80F29DACEF0A}" name="End time" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{8975AA66-C213-41FD-872B-D71B72C703AC}" name="Email" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{8F074126-27BD-4F9D-9201-98C35CE2E5DD}" name="Name" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{1D1118D9-1349-482D-A3D1-CBEA6767D294}" name="Nominal Checklist" dataDxfId="11"/>
@@ -535,7 +535,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,49 +551,49 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -607,19 +607,19 @@
         <v>43475.647893518515</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -628,13 +628,13 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -648,13 +648,13 @@
         <v>43475.648449074077</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -665,13 +665,13 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -685,38 +685,38 @@
         <v>43475.648877314816</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -730,18 +730,18 @@
         <v>43802.65520833333</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -749,13 +749,13 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P5" s="2">
         <v>2</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -769,13 +769,13 @@
         <v>43802.655416666668</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -786,13 +786,13 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" s="2">
         <v>2</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -806,38 +806,38 @@
         <v>43802.655821759261</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2">
         <v>2</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -850,15 +850,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045D28EA33B1D374F90B741F2AF73533E" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70f0338854bc56f50ac4daf9a6be0e17">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d6e80eea-1699-4de5-969f-0d9eb2724e77" xmlns:ns3="4de5569b-e040-4e3a-896c-3d10ceee17bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88fb165263e20f462f96975fe477339d" ns2:_="" ns3:_="">
     <xsd:import namespace="d6e80eea-1699-4de5-969f-0d9eb2724e77"/>
@@ -1061,6 +1052,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1068,14 +1068,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9490256D-FE71-47F1-BF3D-91D2AB4FCEA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B097F2E4-7E29-4DBF-8D28-2AAE2A62041F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1090,6 +1082,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9490256D-FE71-47F1-BF3D-91D2AB4FCEA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
